--- a/data/trans_orig/P13_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P13_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66BD8A98-5241-412B-9525-9A42BDC73634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F750BD0B-13C4-4D39-A4E3-602DC28E4A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3D805EC5-D22E-41D6-B44D-CA7055DAAEA8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF2DECF3-8994-4520-BD86-6D4F98A85656}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="393">
   <si>
     <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,76%</t>
+    <t>4,34%</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -92,7 +92,7 @@
     <t>0,92%</t>
   </si>
   <si>
-    <t>3,16%</t>
+    <t>2,78%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>99,05%</t>
   </si>
   <si>
-    <t>95,24%</t>
+    <t>95,66%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +116,7 @@
     <t>99,08%</t>
   </si>
   <si>
-    <t>96,84%</t>
+    <t>97,22%</t>
   </si>
   <si>
     <t>100%</t>
@@ -128,55 +128,55 @@
     <t>1,98%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>98,02%</t>
   </si>
   <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>97,8%</t>
   </si>
   <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
   </si>
   <si>
     <t>97,91%</t>
   </si>
   <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -185,1057 +185,1039 @@
     <t>4,05%</t>
   </si>
   <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2015 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2015 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>85,77%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA330194-285F-41B1-9E7D-8FCE79C1CC65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9A4D0E-BD11-4649-8C95-3C7DD71CF6E5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2096,13 +2078,13 @@
         <v>42046</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -2111,13 +2093,13 @@
         <v>80953</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2132,13 +2114,13 @@
         <v>922893</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>871</v>
@@ -2147,13 +2129,13 @@
         <v>926347</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>1731</v>
@@ -2162,13 +2144,13 @@
         <v>1849240</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,7 +2206,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2236,13 +2218,13 @@
         <v>22643</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -2251,13 +2233,13 @@
         <v>37039</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -2266,13 +2248,13 @@
         <v>59683</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2269,13 @@
         <v>655866</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>658</v>
@@ -2302,13 +2284,13 @@
         <v>646802</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>1278</v>
@@ -2317,13 +2299,13 @@
         <v>1302667</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2379,7 +2361,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2391,13 +2373,13 @@
         <v>30290</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -2406,13 +2388,13 @@
         <v>71132</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -2421,13 +2403,13 @@
         <v>101422</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2442,13 +2424,13 @@
         <v>911932</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>929</v>
@@ -2457,13 +2439,13 @@
         <v>967480</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>1893</v>
@@ -2472,13 +2454,13 @@
         <v>1879412</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2528,13 @@
         <v>104411</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>156</v>
@@ -2561,13 +2543,13 @@
         <v>163893</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>256</v>
@@ -2576,13 +2558,13 @@
         <v>268304</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2579,13 @@
         <v>3172133</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>3141</v>
@@ -2612,19 +2594,19 @@
         <v>3215305</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>6255</v>
       </c>
       <c r="N20" s="7">
-        <v>6387436</v>
+        <v>6387437</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>114</v>
@@ -2675,7 +2657,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -2710,7 +2692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75746CBD-AF38-49D0-8616-AF05DDC3B707}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FD51C-B55C-41D2-87D9-459BEED02355}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2867,10 +2849,10 @@
         <v>125</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2867,13 @@
         <v>111418</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H5" s="7">
         <v>90</v>
@@ -2900,13 +2882,13 @@
         <v>102180</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M5" s="7">
         <v>207</v>
@@ -2915,13 +2897,13 @@
         <v>213597</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +2971,13 @@
         <v>31006</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H7" s="7">
         <v>62</v>
@@ -3004,13 +2986,13 @@
         <v>66632</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M7" s="7">
         <v>90</v>
@@ -3019,13 +3001,13 @@
         <v>97638</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,7 +3022,7 @@
         <v>556698</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>145</v>
@@ -3177,10 +3159,10 @@
         <v>159</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,13 +3177,13 @@
         <v>968156</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H11" s="7">
         <v>863</v>
@@ -3210,13 +3192,13 @@
         <v>947589</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>1754</v>
@@ -3225,13 +3207,13 @@
         <v>1915744</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,7 +3269,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3299,13 +3281,13 @@
         <v>30061</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -3314,13 +3296,13 @@
         <v>66392</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -3329,13 +3311,13 @@
         <v>96454</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,7 +3332,7 @@
         <v>726615</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>179</v>
@@ -3442,7 +3424,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3460,7 +3442,7 @@
         <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -3469,13 +3451,13 @@
         <v>105234</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -3484,13 +3466,13 @@
         <v>149934</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3487,13 @@
         <v>902009</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>904</v>
@@ -3520,13 +3502,13 @@
         <v>946667</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>1771</v>
@@ -3535,13 +3517,13 @@
         <v>1848676</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3591,13 @@
         <v>158941</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>306</v>
@@ -3624,13 +3606,13 @@
         <v>331560</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>452</v>
@@ -3639,13 +3621,13 @@
         <v>490501</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3642,13 @@
         <v>3264895</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>2989</v>
@@ -3675,13 +3657,13 @@
         <v>3223697</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>6049</v>
@@ -3690,13 +3672,13 @@
         <v>6488592</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,7 +3755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386A8E88-2A7E-492A-A5F4-D27AC6C9A9E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C889B4-88F9-4613-9BA1-127A547B001A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3790,7 +3772,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3897,13 +3879,13 @@
         <v>9030</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3912,10 +3894,10 @@
         <v>8456</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>227</v>
@@ -3927,13 +3909,13 @@
         <v>17486</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,13 +3930,13 @@
         <v>107516</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="H5" s="7">
         <v>108</v>
@@ -3963,13 +3945,13 @@
         <v>104904</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
         <v>212</v>
@@ -3978,13 +3960,13 @@
         <v>212420</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>145</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,13 +4034,13 @@
         <v>17247</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -4067,13 +4049,13 @@
         <v>34717</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>89</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>88</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -4082,13 +4064,13 @@
         <v>51964</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,13 +4085,13 @@
         <v>541007</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H8" s="7">
         <v>517</v>
@@ -4118,13 +4100,13 @@
         <v>522863</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>97</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="M8" s="7">
         <v>1039</v>
@@ -4133,13 +4115,13 @@
         <v>1063870</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,13 +4189,13 @@
         <v>27295</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -4222,13 +4204,13 @@
         <v>46400</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -4237,13 +4219,13 @@
         <v>73695</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>154</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,13 +4240,13 @@
         <v>994163</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="H11" s="7">
         <v>935</v>
@@ -4273,13 +4255,13 @@
         <v>995532</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>1859</v>
@@ -4288,13 +4270,13 @@
         <v>1989695</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>164</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,7 +4332,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4362,13 +4344,13 @@
         <v>27500</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -4377,13 +4359,13 @@
         <v>39891</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -4392,13 +4374,13 @@
         <v>67390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4413,13 +4395,13 @@
         <v>732052</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>700</v>
@@ -4428,13 +4410,13 @@
         <v>743849</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>1371</v>
@@ -4443,13 +4425,13 @@
         <v>1475902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4505,7 +4487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4517,13 +4499,13 @@
         <v>36509</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>292</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -4532,13 +4514,13 @@
         <v>66217</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
@@ -4547,13 +4529,13 @@
         <v>102726</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,13 +4550,13 @@
         <v>901058</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>180</v>
       </c>
       <c r="H17" s="7">
         <v>901</v>
@@ -4583,13 +4565,13 @@
         <v>976675</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="M17" s="7">
         <v>1798</v>
@@ -4598,13 +4580,13 @@
         <v>1877733</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4654,13 @@
         <v>117581</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>188</v>
+        <v>298</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="H19" s="7">
         <v>172</v>
@@ -4687,13 +4669,13 @@
         <v>195680</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M19" s="7">
         <v>284</v>
@@ -4702,13 +4684,13 @@
         <v>313261</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,13 +4705,13 @@
         <v>3275797</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>196</v>
+        <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H20" s="7">
         <v>3161</v>
@@ -4738,13 +4720,13 @@
         <v>3343824</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>6279</v>
@@ -4753,13 +4735,13 @@
         <v>6619621</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>316</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>317</v>
+        <v>186</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4836,7 +4818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31A70948-C0DA-42CF-8A22-4BCCF1287105}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB9221-2D6C-43ED-AED1-0B4BDF5B6442}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4853,7 +4835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4960,13 +4942,13 @@
         <v>6079</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -4975,13 +4957,13 @@
         <v>10980</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -4990,13 +4972,13 @@
         <v>17059</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +4993,13 @@
         <v>94826</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="H5" s="7">
         <v>218</v>
@@ -5026,13 +5008,13 @@
         <v>119364</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>328</v>
@@ -5041,13 +5023,13 @@
         <v>214191</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,10 +5100,10 @@
         <v>159</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>327</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="H7" s="7">
         <v>83</v>
@@ -5130,13 +5112,13 @@
         <v>39697</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
@@ -5145,13 +5127,13 @@
         <v>75416</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5148,13 @@
         <v>513176</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>909</v>
@@ -5181,13 +5163,13 @@
         <v>550548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>1475</v>
@@ -5196,13 +5178,13 @@
         <v>1063724</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>350</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,13 +5252,13 @@
         <v>39780</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>352</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="H10" s="7">
         <v>126</v>
@@ -5285,13 +5267,13 @@
         <v>76995</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>248</v>
+        <v>344</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="M10" s="7">
         <v>172</v>
@@ -5300,13 +5282,13 @@
         <v>116775</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>346</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,13 +5303,13 @@
         <v>999468</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>360</v>
+        <v>180</v>
       </c>
       <c r="H11" s="7">
         <v>1387</v>
@@ -5336,13 +5318,13 @@
         <v>981060</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>2305</v>
@@ -5351,13 +5333,13 @@
         <v>1980528</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>364</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,7 +5395,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5425,13 +5407,13 @@
         <v>39387</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -5440,13 +5422,13 @@
         <v>52775</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>206</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="M13" s="7">
         <v>123</v>
@@ -5455,13 +5437,13 @@
         <v>92162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5476,13 +5458,13 @@
         <v>689385</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>966</v>
@@ -5491,13 +5473,13 @@
         <v>821154</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>1599</v>
@@ -5506,13 +5488,13 @@
         <v>1510538</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,7 +5550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5580,13 +5562,13 @@
         <v>58004</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="H16" s="7">
         <v>149</v>
@@ -5595,13 +5577,13 @@
         <v>96415</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="M16" s="7">
         <v>217</v>
@@ -5610,13 +5592,13 @@
         <v>154419</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>375</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>141</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,13 +5613,13 @@
         <v>905654</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>1413</v>
@@ -5646,13 +5628,13 @@
         <v>1054017</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="M17" s="7">
         <v>2349</v>
@@ -5661,13 +5643,13 @@
         <v>1959671</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>150</v>
+        <v>321</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5717,13 @@
         <v>178970</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>389</v>
+        <v>257</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="H19" s="7">
         <v>462</v>
@@ -5750,13 +5732,13 @@
         <v>276861</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>297</v>
+        <v>382</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="M19" s="7">
         <v>671</v>
@@ -5765,13 +5747,13 @@
         <v>455831</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>193</v>
+        <v>384</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5768,13 @@
         <v>3202508</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>395</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>4893</v>
@@ -5801,13 +5783,13 @@
         <v>3526143</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>302</v>
+        <v>389</v>
       </c>
       <c r="M20" s="7">
         <v>8056</v>
@@ -5816,13 +5798,13 @@
         <v>6728651</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>202</v>
+        <v>390</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P13_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P13_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F750BD0B-13C4-4D39-A4E3-602DC28E4A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6AD7787-00D4-41C6-B913-DEA4CB94C63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF2DECF3-8994-4520-BD86-6D4F98A85656}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DAAA5C59-01BD-4785-A305-9A59FDFB3670}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,1134 +80,1137 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
     <t>4,34%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,05%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
   </si>
   <si>
     <t>95,66%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2012 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
   </si>
   <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
   </si>
   <si>
     <t>96,03%</t>
   </si>
   <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2016 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
   </si>
   <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>93,77%</t>
   </si>
   <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>4,52%</t>
   </si>
   <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>95,48%</t>
   </si>
   <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2012 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2023 (Tasa respuesta: 99,82%)</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>97,28%</t>
   </si>
   <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
   </si>
   <si>
     <t>96,06%</t>
   </si>
   <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2015 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>4,53%</t>
   </si>
   <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
   </si>
   <si>
     <t>95,47%</t>
   </si>
   <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>Población que sus problemas (fìsicos o emocionales) le han dificultado sus actividades sociales siempre o casi siempre en 2023 (Tasa respuesta: 99,82%)</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
     <t>93,56%</t>
   </si>
   <si>
@@ -1215,9 +1218,6 @@
   </si>
   <si>
     <t>93,11%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
   </si>
 </sst>
 </file>
@@ -1629,7 +1629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9A4D0E-BD11-4649-8C95-3C7DD71CF6E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589E5864-E705-4355-ABCF-C496B1F98ABC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2078,13 +2078,13 @@
         <v>42046</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -2093,13 +2093,13 @@
         <v>80953</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2114,13 +2114,13 @@
         <v>922893</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>871</v>
@@ -2129,13 +2129,13 @@
         <v>926347</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1731</v>
@@ -2144,13 +2144,13 @@
         <v>1849240</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,7 +2206,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2218,13 +2218,13 @@
         <v>22643</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -2233,13 +2233,13 @@
         <v>37039</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>59</v>
@@ -2248,13 +2248,13 @@
         <v>59683</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,13 +2269,13 @@
         <v>655866</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>658</v>
@@ -2284,13 +2284,13 @@
         <v>646802</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>1278</v>
@@ -2299,13 +2299,13 @@
         <v>1302667</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2361,7 +2361,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2373,13 +2373,13 @@
         <v>30290</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>68</v>
@@ -2388,13 +2388,13 @@
         <v>71132</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -2403,13 +2403,13 @@
         <v>101422</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2424,13 +2424,13 @@
         <v>911932</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>929</v>
@@ -2439,13 +2439,13 @@
         <v>967480</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1893</v>
@@ -2454,13 +2454,13 @@
         <v>1879412</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,13 +2528,13 @@
         <v>104411</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>156</v>
@@ -2543,13 +2543,13 @@
         <v>163893</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>256</v>
@@ -2558,13 +2558,13 @@
         <v>268304</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,16 +2576,16 @@
         <v>3114</v>
       </c>
       <c r="D20" s="7">
-        <v>3172133</v>
+        <v>3172132</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>3141</v>
@@ -2594,13 +2594,13 @@
         <v>3215305</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>6255</v>
@@ -2609,13 +2609,13 @@
         <v>6387437</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2627,7 +2627,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>26</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2692,7 +2692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F8FD51C-B55C-41D2-87D9-459BEED02355}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CF6C0F-4E26-458E-B5A2-B2D95342386E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2709,7 +2709,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2816,13 +2816,13 @@
         <v>3382</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -2831,13 +2831,13 @@
         <v>9725</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
@@ -2846,13 +2846,13 @@
         <v>13108</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,13 +2867,13 @@
         <v>111418</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
         <v>90</v>
@@ -2882,13 +2882,13 @@
         <v>102180</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>56</v>
       </c>
       <c r="M5" s="7">
         <v>207</v>
@@ -2897,13 +2897,13 @@
         <v>213597</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2971,13 @@
         <v>31006</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>62</v>
@@ -2986,13 +2986,13 @@
         <v>66632</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>90</v>
@@ -3001,13 +3001,13 @@
         <v>97638</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3022,13 @@
         <v>556698</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>488</v>
@@ -3037,13 +3037,13 @@
         <v>517578</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>1012</v>
@@ -3052,13 +3052,13 @@
         <v>1074276</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,13 +3126,13 @@
         <v>49791</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -3141,13 +3141,13 @@
         <v>83576</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -3156,13 +3156,13 @@
         <v>133368</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3177,13 @@
         <v>968156</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H11" s="7">
         <v>863</v>
@@ -3192,13 +3192,13 @@
         <v>947589</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M11" s="7">
         <v>1754</v>
@@ -3207,13 +3207,13 @@
         <v>1915744</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,7 +3269,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3281,13 +3281,13 @@
         <v>30061</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -3296,13 +3296,13 @@
         <v>66392</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -3311,13 +3311,13 @@
         <v>96454</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,13 +3332,13 @@
         <v>726615</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>644</v>
@@ -3347,13 +3347,13 @@
         <v>709684</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>1305</v>
@@ -3362,13 +3362,13 @@
         <v>1436299</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,7 +3424,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3436,13 +3436,13 @@
         <v>44700</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -3451,13 +3451,13 @@
         <v>105234</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -3466,13 +3466,13 @@
         <v>149934</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,10 +3487,10 @@
         <v>902009</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>198</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3755,7 +3755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C889B4-88F9-4613-9BA1-127A547B001A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BC1F39-0E4B-4CC5-AB49-BADB00EFF59C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3882,10 +3882,10 @@
         <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -3894,13 +3894,13 @@
         <v>8456</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -3909,13 +3909,13 @@
         <v>17486</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>138</v>
+        <v>230</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3930,13 @@
         <v>107516</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="H5" s="7">
         <v>108</v>
@@ -3945,13 +3945,13 @@
         <v>104904</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="M5" s="7">
         <v>212</v>
@@ -3960,13 +3960,13 @@
         <v>212420</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4034,13 @@
         <v>17247</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>32</v>
@@ -4049,13 +4049,13 @@
         <v>34717</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>89</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>88</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>49</v>
@@ -4064,13 +4064,13 @@
         <v>51964</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>242</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4085,13 @@
         <v>541007</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
         <v>517</v>
@@ -4100,13 +4100,13 @@
         <v>522863</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>97</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>98</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>1039</v>
@@ -4115,13 +4115,13 @@
         <v>1063870</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>248</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4189,13 @@
         <v>27295</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -4204,13 +4204,13 @@
         <v>46400</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -4219,13 +4219,13 @@
         <v>73695</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4240,13 @@
         <v>994163</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
         <v>935</v>
@@ -4255,13 +4255,13 @@
         <v>995532</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
         <v>1859</v>
@@ -4270,13 +4270,13 @@
         <v>1989695</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,7 +4332,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4344,13 +4344,13 @@
         <v>27500</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -4359,13 +4359,13 @@
         <v>39891</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -4374,13 +4374,13 @@
         <v>67390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,13 +4395,13 @@
         <v>732052</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7">
         <v>700</v>
@@ -4410,13 +4410,13 @@
         <v>743849</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>1371</v>
@@ -4425,13 +4425,13 @@
         <v>1475902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,7 +4487,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4499,13 +4499,13 @@
         <v>36509</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -4514,13 +4514,13 @@
         <v>66217</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>288</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
@@ -4529,13 +4529,13 @@
         <v>102726</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4550,13 +4550,13 @@
         <v>901058</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>180</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>901</v>
@@ -4565,13 +4565,13 @@
         <v>976675</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>1798</v>
@@ -4580,13 +4580,13 @@
         <v>1877733</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4654,13 @@
         <v>117581</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="H19" s="7">
         <v>172</v>
@@ -4669,13 +4669,13 @@
         <v>195680</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M19" s="7">
         <v>284</v>
@@ -4684,13 +4684,13 @@
         <v>313261</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>105</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,13 +4705,13 @@
         <v>3275797</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="H20" s="7">
         <v>3161</v>
@@ -4720,13 +4720,13 @@
         <v>3343824</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="M20" s="7">
         <v>6279</v>
@@ -4735,13 +4735,13 @@
         <v>6619621</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>317</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>186</v>
+        <v>318</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>114</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,7 +4797,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4818,7 +4818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB9221-2D6C-43ED-AED1-0B4BDF5B6442}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF22AC9C-CB35-4787-AB5C-99EE0B9FE8D7}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4835,7 +4835,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4942,13 +4942,13 @@
         <v>6079</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -4957,13 +4957,13 @@
         <v>10980</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>209</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -4972,13 +4972,13 @@
         <v>17059</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +4993,13 @@
         <v>94826</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>218</v>
@@ -5008,13 +5008,13 @@
         <v>119364</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>321</v>
+        <v>219</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="M5" s="7">
         <v>328</v>
@@ -5023,13 +5023,13 @@
         <v>214191</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5097,13 @@
         <v>35719</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>83</v>
@@ -5112,13 +5112,13 @@
         <v>39697</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>128</v>
@@ -5127,13 +5127,13 @@
         <v>75416</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5148,13 @@
         <v>513176</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="H8" s="7">
         <v>909</v>
@@ -5163,13 +5163,13 @@
         <v>550548</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>1475</v>
@@ -5178,13 +5178,13 @@
         <v>1063724</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,13 +5252,13 @@
         <v>39780</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>341</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>349</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>342</v>
+        <v>68</v>
       </c>
       <c r="H10" s="7">
         <v>126</v>
@@ -5267,13 +5267,13 @@
         <v>76995</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>172</v>
@@ -5282,13 +5282,13 @@
         <v>116775</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>346</v>
+        <v>108</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,13 +5303,13 @@
         <v>999468</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>348</v>
+        <v>235</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>349</v>
+        <v>76</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>180</v>
+        <v>354</v>
       </c>
       <c r="H11" s="7">
         <v>1387</v>
@@ -5318,13 +5318,13 @@
         <v>981060</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="M11" s="7">
         <v>2305</v>
@@ -5333,13 +5333,13 @@
         <v>1980528</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>353</v>
+        <v>116</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,7 +5395,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5407,13 +5407,13 @@
         <v>39387</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H13" s="7">
         <v>80</v>
@@ -5422,13 +5422,13 @@
         <v>52775</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>206</v>
+        <v>363</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="M13" s="7">
         <v>123</v>
@@ -5437,13 +5437,13 @@
         <v>92162</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,13 +5458,13 @@
         <v>689385</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H14" s="7">
         <v>966</v>
@@ -5473,13 +5473,13 @@
         <v>821154</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>1599</v>
@@ -5488,13 +5488,13 @@
         <v>1510538</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,7 +5550,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5562,13 +5562,13 @@
         <v>58004</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="H16" s="7">
         <v>149</v>
@@ -5577,13 +5577,13 @@
         <v>96415</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>217</v>
@@ -5592,13 +5592,13 @@
         <v>154419</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>375</v>
+        <v>212</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5613,13 @@
         <v>905654</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>318</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>1413</v>
@@ -5628,13 +5628,13 @@
         <v>1054017</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="M17" s="7">
         <v>2349</v>
@@ -5643,13 +5643,13 @@
         <v>1959671</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>321</v>
+        <v>219</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>380</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,13 +5717,13 @@
         <v>178970</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>342</v>
+        <v>68</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>257</v>
+        <v>385</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>381</v>
+        <v>52</v>
       </c>
       <c r="H19" s="7">
         <v>462</v>
@@ -5732,13 +5732,13 @@
         <v>276861</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>383</v>
+        <v>290</v>
       </c>
       <c r="M19" s="7">
         <v>671</v>
@@ -5747,13 +5747,13 @@
         <v>455831</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>385</v>
+        <v>175</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,13 +5768,13 @@
         <v>3202508</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>349</v>
+        <v>76</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>387</v>
+        <v>60</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>389</v>
       </c>
       <c r="H20" s="7">
         <v>4893</v>
@@ -5783,13 +5783,13 @@
         <v>3526143</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>388</v>
+        <v>297</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M20" s="7">
         <v>8056</v>
@@ -5798,13 +5798,13 @@
         <v>6728651</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>392</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,7 +5860,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
